--- a/server-res/excel/Cfg_AIType.xlsx
+++ b/server-res/excel/Cfg_AIType.xlsx
@@ -1,15 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -21,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -35,7 +33,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0">
+    <comment ref="E2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H3" authorId="0">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,11 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="50">
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,10 +182,6 @@
     <t>idle时,随机移动单步距离</t>
   </si>
   <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随机移动最大范围,出了范围,走回原始点</t>
   </si>
   <si>
@@ -213,21 +203,10 @@
     <t>技能id</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>repeated uint32</t>
-  </si>
-  <si>
     <t>script_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>脚本id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>跟随路径编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否追击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,10 +238,6 @@
     <t>attack_wait_ms</t>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击思考间隔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,10 +258,6 @@
   </si>
   <si>
     <t>ai_debug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,7 +268,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,16 +318,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -374,6 +338,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -422,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -666,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -688,328 +655,263 @@
     <col min="18" max="18" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="M2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1010001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="H3" s="1">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
+      <c r="I3" s="1">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1">
+        <v>30</v>
+      </c>
+      <c r="K3" s="1">
+        <v>800</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="1">
+        <v>3500</v>
+      </c>
+      <c r="N3" s="1">
         <v>15</v>
       </c>
-      <c r="S1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>10001</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="4" t="s">
-        <v>47</v>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2">
+        <v>1010001</v>
+      </c>
+      <c r="U3" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1010002</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12000</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1">
+        <v>30</v>
+      </c>
+      <c r="J4" s="1">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1">
+        <v>800</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3500</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15</v>
+      </c>
+      <c r="O4" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="P4" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="Q4" s="1">
+        <v>10002</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="1">
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="T4" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>1010001</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>12000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2">
-        <v>30</v>
-      </c>
-      <c r="J4" s="2">
-        <v>30</v>
-      </c>
-      <c r="K4" s="2">
-        <v>800</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M4" s="2">
-        <v>3500</v>
-      </c>
-      <c r="N4" s="2">
-        <v>15</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>10001</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="4">
-        <v>1010001</v>
-      </c>
-      <c r="U4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>1010002</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>4</v>
-      </c>
-      <c r="H5" s="2">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2">
-        <v>30</v>
-      </c>
-      <c r="J5" s="2">
-        <v>30</v>
-      </c>
-      <c r="K5" s="2">
-        <v>800</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="M5" s="2">
-        <v>3500</v>
-      </c>
-      <c r="N5" s="2">
-        <v>15</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>10002</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="b">
+      <c r="U4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1019,30 +921,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/server-res/excel/Cfg_AIType.xlsx
+++ b/server-res/excel/Cfg_AIType.xlsx
@@ -27,6 +27,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve"> 0=木桩 1=被动 2=主动</t>
@@ -41,6 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0=low 1=ok 2=lots</t>
@@ -50,6 +52,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -65,6 +68,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0=low 1=ok 2=lots</t>
@@ -74,6 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -89,6 +94,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0=AND 1=OR</t>
@@ -103,6 +109,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>0=unlike 1=like 2=verylike</t>
@@ -112,6 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -124,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +270,14 @@
   </si>
   <si>
     <t>调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillfam_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能模糊选择器ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,12 +305,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -633,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -651,11 +669,11 @@
     <col min="11" max="13" width="29.875" customWidth="1"/>
     <col min="14" max="14" width="20.5" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -708,19 +726,22 @@
         <v>13</v>
       </c>
       <c r="R1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -773,19 +794,22 @@
         <v>23</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1010001</v>
       </c>
@@ -835,22 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1">
-        <v>10001</v>
-      </c>
-      <c r="R3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>0</v>
       </c>
-      <c r="T3" s="2">
+      <c r="U3" s="2">
         <v>1010001</v>
       </c>
-      <c r="U3" s="1" t="b">
+      <c r="V3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1010002</v>
       </c>
@@ -900,18 +927,21 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>10002</v>
-      </c>
-      <c r="R4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>0</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="2">
         <v>0</v>
       </c>
-      <c r="U4" s="1" t="b">
+      <c r="V4" s="1" t="b">
         <v>0</v>
       </c>
     </row>
